--- a/data/income_statement/3digits/total/783_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/783_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>783-Other human resources provision</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>783-Other human resources provision</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,56 +841,66 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>674438.04316</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>836055.63909</v>
+        <v>836055.6390900001</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>1118609.49595</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1450353.20393</v>
+        <v>1452042.52068</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1674133.85373</v>
+        <v>1722711.88474</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2071707.79129</v>
+        <v>2123611.62031</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2681545.809040001</v>
+        <v>2746040.8762</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3398797.63738</v>
+        <v>3416349.05764</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>4294340.30227</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>14389287.83413</v>
+        <v>14664014.77193</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>21126051.87136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>21526176.67039</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>26302094.511</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>658846.89277</v>
+        <v>658846.8927699999</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>819134.9951300002</v>
@@ -998,34 +909,39 @@
         <v>1091960.42564</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1398040.29089</v>
+        <v>1399729.60764</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1660588.92087</v>
+        <v>1709166.95188</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2045483.58065</v>
+        <v>2097387.40967</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2636478.39725</v>
+        <v>2700973.46441</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3351666.299459999</v>
+        <v>3369152.80365</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>4225120.596679999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>14030165.11879</v>
+        <v>14294611.68869</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>20717195.27956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>21100852.88185</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>25859509.704</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1569.05611</v>
@@ -1049,22 +965,27 @@
         <v>23184.89001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>8400.512980000001</v>
+        <v>8400.512979999998</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>12036.10564</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>76040.10767000001</v>
+        <v>76040.10767</v>
       </c>
       <c r="M7" s="48" t="n">
         <v>79749.49273</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>94209.75999999999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>14022.09428</v>
@@ -1088,22 +1009,27 @@
         <v>21882.52178</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>38730.82494000001</v>
+        <v>38795.74101000001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>57183.59995</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>283082.60767</v>
+        <v>293362.97557</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>329107.09907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>345574.29581</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>348375.047</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2755.15174</v>
@@ -1118,7 +1044,7 @@
         <v>3026.24883</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3955.80328</v>
+        <v>4081.90944</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>2642.05821</v>
@@ -1136,13 +1062,18 @@
         <v>24714.37422</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>26579.19821</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>27482.48245</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>72909.302</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2646.39224</v>
@@ -1157,7 +1088,7 @@
         <v>3003.47206</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3580.55828</v>
+        <v>3706.66444</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>1685.7888</v>
@@ -1175,13 +1106,18 @@
         <v>20390.27172</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>19286.97855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19327.04548</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>69258.442</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>52.25388</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>3020.15818</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>706.532</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>56.50562</v>
@@ -1253,16 +1194,21 @@
         <v>2208.57819</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4272.061479999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5135.278790000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2944.328</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>671682.89142</v>
+        <v>671682.8914200001</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>833999.18112</v>
@@ -1271,34 +1217,39 @@
         <v>1116381.01636</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1447326.9551</v>
+        <v>1449016.27185</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1670178.05045</v>
+        <v>1718629.9753</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2069065.73308</v>
+        <v>2120969.5621</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2677531.898620001</v>
+        <v>2742026.96578</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3386133.4586</v>
+        <v>3403684.87886</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>4284237.72833</v>
+        <v>4284237.728329999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14364573.45991</v>
+        <v>14639300.39771</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>21099472.67315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21498694.18794</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>26229185.209</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>683515.90699</v>
@@ -1310,34 +1261,39 @@
         <v>1129289.316</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1461205.99482</v>
+        <v>1462857.85181</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1702066.9474</v>
+        <v>1749125.14764</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2111142.44891</v>
+        <v>2161018.6365</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2599393.302429999</v>
+        <v>2661760.12199</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3300702.35882</v>
+        <v>3317992.84761</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>4250602.33371</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>13332193.19557</v>
+        <v>13531997.6759</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>19700062.57833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>19994444.76654</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>24422129.863</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1292.30686</v>
@@ -1352,13 +1308,13 @@
         <v>6096.772190000001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3934.81944</v>
+        <v>7426.69116</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2553.94656</v>
+        <v>3862.15557</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1659.89983</v>
+        <v>3271.64214</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>66361.41860999999</v>
@@ -1367,16 +1323,21 @@
         <v>17016.96737</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>95110.73647</v>
+        <v>97299.79466</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>107941.63095</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>109088.84422</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>164383.827</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>11840.21864</v>
@@ -1388,16 +1349,16 @@
         <v>44499.34936</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>56331.77746999999</v>
+        <v>56331.77747</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>37864.04239</v>
+        <v>64272.81801</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>63132.15768</v>
+        <v>91635.28896999998</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>56797.10911</v>
+        <v>90461.14668000001</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>134735.45222</v>
@@ -1406,55 +1367,65 @@
         <v>326263.87262</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>432319.45218</v>
+        <v>435352.2936799999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>557517.24947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>562966.72249</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>421726.225</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>669050.4556400001</v>
+        <v>669050.4556399999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>787791.02043</v>
+        <v>787791.0204299999</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>1084395.40227</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1375033.33125</v>
+        <v>1376685.18824</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1660257.91608</v>
+        <v>1677415.46898</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2044837.6188</v>
+        <v>2064902.46609</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2540407.61088</v>
+        <v>2567498.65056</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3096029.81353</v>
+        <v>3113320.30232</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>3906473.91482</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>12787511.53146</v>
+        <v>12982094.1121</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>19028819.12609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19316604.62800999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>23766232.471</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1332.92585</v>
@@ -1489,53 +1460,63 @@
       <c r="M18" s="48" t="n">
         <v>5784.57182</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>69787.34</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>-11833.01557</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2364.640529999999</v>
+        <v>2364.64053</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>-12908.29964</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>-13879.03972</v>
+        <v>-13841.57996</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>-31888.89694999999</v>
+        <v>-30495.17234</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>-42076.71583000002</v>
+        <v>-40049.0744</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>78138.59619</v>
+        <v>80266.84378999998</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>85431.09978</v>
+        <v>85692.03125</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>33635.39462</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1032380.26434</v>
+        <v>1107302.72181</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1399410.09482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1504249.4214</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1807055.346</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>49637.66214</v>
+        <v>49637.66213999999</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>55546.45397</v>
@@ -1544,34 +1525,39 @@
         <v>60055.81307</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>90746.71242000001</v>
+        <v>90817.63573000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>96751.70218000001</v>
+        <v>97320.45458999999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>117974.90002</v>
+        <v>119032.42158</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>144357.71258</v>
+        <v>146112.25512</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>163830.38579</v>
+        <v>163951.53094</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>210737.15863</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>907698.8999200001</v>
+        <v>979628.4343900001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1250457.87334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1323075.57473</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1634885.779</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>8.4</v>
@@ -1604,13 +1590,18 @@
         <v>4045.18495</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6540.20668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6545.461730000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>17295.137</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>7141.944759999999</v>
@@ -1619,13 +1610,13 @@
         <v>8927.36089</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>931.7062500000001</v>
+        <v>931.70625</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>2471.48881</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>8471.443120000002</v>
+        <v>8471.44312</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>14238.8507</v>
@@ -1640,19 +1631,24 @@
         <v>51469.60183</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>111272.22543</v>
+        <v>129500.95207</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>123599.00234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>123618.75432</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>128333.903</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>42487.31737999999</v>
+        <v>42487.31738</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>46619.09308</v>
@@ -1661,73 +1657,83 @@
         <v>59124.10682</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>88275.22361</v>
+        <v>88346.14692</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>88280.25906</v>
+        <v>88849.01147</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>103736.04932</v>
+        <v>104793.57088</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>110435.45127</v>
+        <v>112189.99381</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>125934.18848</v>
+        <v>126055.33363</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>159267.5568</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>792381.48954</v>
+        <v>846082.29737</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1120318.66432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1192911.35868</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1489256.739</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-61470.67771000001</v>
+        <v>-61470.67771</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-53181.81344000001</v>
+        <v>-53181.81344</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-72964.11271</v>
+        <v>-72964.11270999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-104625.75214</v>
+        <v>-104659.21569</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-128640.59913</v>
+        <v>-127815.62693</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-160051.61585</v>
+        <v>-159081.49598</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-66219.11639000001</v>
+        <v>-65845.41133</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-78399.28601</v>
+        <v>-78259.49969</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-177101.76401</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>124681.36442</v>
+        <v>127674.28742</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>148952.22148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>181173.84667</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>172169.567</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>7686.73284</v>
@@ -1739,34 +1745,39 @@
         <v>18927.57793</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>11962.49513</v>
+        <v>11974.0467</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>15465.15351</v>
+        <v>15603.72869</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>58016.16451</v>
+        <v>58105.00753</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>21814.03372</v>
+        <v>22494.78354</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>36642.77926</v>
+        <v>36698.66396</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>30342.44213</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>298574.16038</v>
+        <v>299295.7109600001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>119716.29689</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>120749.17237</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>127724.314</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>220.91255</v>
@@ -1790,7 +1801,7 @@
         <v>653.25883</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>437.09798</v>
+        <v>451.51541</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>622.1380300000001</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>182.35397</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>136.701</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>299.00883</v>
@@ -1829,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>13352.83803</v>
+        <v>13394.3053</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>42.87373</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>4103.08923</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>7472.967</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2375.18221</v>
@@ -1856,16 +1877,16 @@
         <v>2929.10647</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5983.90148</v>
+        <v>5995.45305</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>7005.507930000001</v>
+        <v>7041.50877</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>7446.20606</v>
+        <v>7490.588039999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>9133.65958</v>
+        <v>9421.333210000001</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>9908.31444</v>
@@ -1874,16 +1895,21 @@
         <v>15446.92059</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>36072.4425</v>
+        <v>36093.24518</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>48098.50071</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>48209.30662</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>42155.376</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>917.0729</v>
@@ -1913,16 +1939,21 @@
         <v>14.18092</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>289.26341</v>
+        <v>291.48731</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>364.17467</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>366.18084</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>743.699</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>590.7694300000001</v>
@@ -1937,13 +1968,13 @@
         <v>501.7152</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>485.04067</v>
+        <v>533.6772</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>153.33329</v>
+        <v>164.09036</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>207.96347</v>
+        <v>360.4416</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>378.51251</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>9745.41093</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>5032.485</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>221.3168</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>4379.04233</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>3430.018</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>2461.680679999999</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>13630.74105</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>24159.125</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1.01096</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>165.969</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2108,16 +2159,21 @@
         <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>0</v>
+        <v>143.17135</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>600.7894399999999</v>
@@ -2132,13 +2188,13 @@
         <v>3464.3323</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3731.89934</v>
+        <v>3785.83715</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>46643.11491</v>
+        <v>46676.81888000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>7709.39059</v>
+        <v>7949.988649999999</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>8028.18992</v>
@@ -2147,16 +2203,21 @@
         <v>8549.600930000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>49746.97213</v>
+        <v>50302.32478</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>39211.97304</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>40132.03644</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>44427.974</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>3251.0857</v>
@@ -2171,13 +2232,13 @@
         <v>6412.00731</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3850.27251</v>
+        <v>3951.47543</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>52198.53194</v>
+        <v>52381.74807</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5847.681219999999</v>
+        <v>5860.94673</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>8266.792300000001</v>
@@ -2186,16 +2247,21 @@
         <v>5990.34124</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>194291.88941</v>
+        <v>194828.10977</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>67193.26462</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>68199.09784</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>51036.396</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>415.22078</v>
@@ -2225,16 +2291,21 @@
         <v>0.8085</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>578.37646</v>
+        <v>579.8786600000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>237.38286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>237.78081</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>378.488</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>276.24613</v>
@@ -2249,10 +2320,10 @@
         <v>3791.00383</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1986.76542</v>
+        <v>2087.16967</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2573.37553</v>
+        <v>2727.85475</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>1761.36943</v>
@@ -2264,16 +2335,21 @@
         <v>298.81664</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2921.20636</v>
+        <v>3455.88965</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>36848.90903</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>37852.86629</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>13445.008</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1.12974</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4731.058</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>2347.8715</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>12284.64375</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>14186.178</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>211.74729</v>
@@ -2444,70 +2540,80 @@
         <v>1491.8611</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>417.39234</v>
+        <v>418.1910099999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>46366.84455</v>
+        <v>46395.58146</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2239.13184</v>
+        <v>2252.39735</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>5433.49317</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3972.448909999999</v>
+        <v>3972.44891</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>14489.00218</v>
+        <v>14489.03705</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>17821.19924</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>17822.67725</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>18295.664</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>22559.46595</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4289.95944</v>
+        <v>4289.959440000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>5018.17172</v>
+        <v>5018.171719999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>5425.68276</v>
+        <v>6994.932849999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5943.677350000001</v>
+        <v>6028.76345</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>9895.442080000001</v>
+        <v>10124.56082</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>21778.34091</v>
+        <v>21973.58757</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>23129.78164</v>
+        <v>23226.33117</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>25660.86227</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>46357.08893999999</v>
+        <v>46371.62075</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>58531.85431</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>58733.89914</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>51440.085</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>19465.39959</v>
@@ -2519,34 +2625,39 @@
         <v>4052.14615</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>5425.36023</v>
+        <v>6994.610320000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5940.24491</v>
+        <v>6025.33101</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>9847.388059999999</v>
+        <v>10076.5068</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>21526.80739</v>
+        <v>21722.05405</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>23129.77397</v>
+        <v>23226.3235</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>25584.21356</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>45205.09147</v>
+        <v>45219.62328</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>57301.95148999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>57503.99632</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>49700.431</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3094.06636</v>
@@ -2581,53 +2692,63 @@
       <c r="M46" s="48" t="n">
         <v>1229.90282</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1739.654</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-79594.49652</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-52040.03765999999</v>
+        <v>-52040.03766</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>-106375.65225</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-104500.94708</v>
+        <v>-106092.10915</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-122969.39548</v>
+        <v>-122192.13712</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-164129.42536</v>
+        <v>-163482.79734</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-72031.1048</v>
+        <v>-71185.16209000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-73153.08069000002</v>
+        <v>-73053.9592</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-178410.52539</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>182606.54645</v>
+        <v>185770.26786</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>142943.39944</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>174990.02206</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>197417.4</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5496.83494</v>
+        <v>5496.834940000001</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>10084.51615</v>
@@ -2636,34 +2757,39 @@
         <v>7866.162939999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>9422.60917</v>
+        <v>11303.18078</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>16740.47943</v>
+        <v>16890.47846</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>8368.15784</v>
+        <v>8580.70067</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>11353.30617</v>
+        <v>11440.21648</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>18543.54317</v>
+        <v>18551.95144</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>38597.3873</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>128479.53822</v>
+        <v>129153.35254</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>154773.1882</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>155447.15884</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>168525.159</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>128.49502</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>2994.47405</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2868.629</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>5368.33992</v>
@@ -2711,37 +2842,42 @@
         <v>10084.2334</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4677.247520000001</v>
+        <v>4677.24752</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>9313.491450000001</v>
+        <v>11194.06306</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>16365.56275</v>
+        <v>16515.56178</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>8366.055270000001</v>
+        <v>8578.598099999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>11353.29746</v>
+        <v>11440.20777</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>18471.84846</v>
+        <v>18480.25673</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>38408.1733</v>
+        <v>38408.17329999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>126766.4059</v>
+        <v>127440.22022</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>151778.71415</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>152452.68479</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>165656.53</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1428.61119</v>
@@ -2753,34 +2889,39 @@
         <v>13797.10378</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3627.45593</v>
+        <v>3643.54556</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3094.17966</v>
+        <v>4400.6974</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5475.356859999999</v>
+        <v>6622.594909999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>42402.9422</v>
+        <v>42480.61248</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>33726.20483</v>
+        <v>33734.32973</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>26814.00792</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>128057.70914</v>
+        <v>128125.4517</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>171573.85759</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>172293.44291</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>215429.675</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>213.49591</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>200.242</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>503.28289</v>
@@ -2852,13 +2998,18 @@
         <v>7728.08951</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>8303.338090000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8307.99941</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>24404.955</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>925.3283</v>
@@ -2870,73 +3021,83 @@
         <v>13629.94094</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2689.19119</v>
+        <v>2705.28082</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2461.97011</v>
+        <v>3768.48785</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>5346.48238</v>
+        <v>6493.72043</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>41718.44841</v>
+        <v>41796.11869</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>33304.37587999999</v>
+        <v>33312.50078</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>24882.86485</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>120069.13946</v>
+        <v>120136.88202</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>163057.02359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>163771.94759</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>190824.478</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-75526.27277</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-43440.64741</v>
+        <v>-43440.64741000001</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-112306.59309</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-98705.79384</v>
+        <v>-98432.47392999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-109323.09571</v>
+        <v>-109702.35606</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-161236.62438</v>
+        <v>-161524.69158</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-103080.74083</v>
+        <v>-102225.55809</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-88335.74235</v>
+        <v>-88236.33748999999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-166627.14601</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>183028.37553</v>
+        <v>186798.1687</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>126142.73005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>158143.73799</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>150512.884</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>3168.50928</v>
@@ -2948,70 +3109,78 @@
         <v>4711.19387</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>5115.33683</v>
+        <v>5127.311459999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4206.228239999999</v>
+        <v>4366.22458</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4852.200880000001</v>
+        <v>5024.03505</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7081.32354</v>
+        <v>7314.864939999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9621.255519999999</v>
+        <v>9642.257250000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>12335.71796</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>117608.13938</v>
+        <v>119194.16403</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>206028.75951</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>211013.45795</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>236941.279</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-78694.78205000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-46609.26664000001</v>
+        <v>-46609.26664</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-117017.78696</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-103821.13067</v>
+        <v>-103559.78539</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-113529.32395</v>
+        <v>-114068.58064</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-166088.82526</v>
+        <v>-166548.72663</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-110162.06437</v>
+        <v>-109540.42303</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-97956.99787000001</v>
+        <v>-97878.59474</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-178962.86397</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>65420.23615</v>
+        <v>67604.00466999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-79886.02945999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-52869.71996</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-86428.395</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>84</v>
@@ -3041,31 +3213,34 @@
         <v>80</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>347</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1255</v>
+        <v>1432</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1561</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>